--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777141.5207448557</v>
+        <v>702528.8266698977</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009819</v>
+        <v>404724.2260944798</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528064</v>
+        <v>11762410.58428957</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7731615.311954872</v>
+        <v>7745526.650623183</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.0268398609343</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.285385643442</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>140.2861087592617</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>85.31372784089217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>58.64124924790688</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,52 +1302,52 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>38.19053515138899</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>91.8675030837757</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>88.21024760771087</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>234.579990218862</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.203367682519216</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.9934051322452</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952547</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463312</v>
+        <v>72.18618767639303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492363</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>77.42201344675313</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8944188046378</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H15" t="n">
-        <v>107.898099562911</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493642</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.2743413282671</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663108</v>
+        <v>136.9024426048562</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U15" t="n">
-        <v>22.06801386448662</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.03914902326065</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6144703808229</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153678</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>90.15274098159331</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.9934051322452</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>67.62176764444251</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>203.8041879340259</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>305.9582142153889</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>58.21273057308787</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>56.66199767592529</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>158.6706769332459</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9.928514126398118</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.788117693706</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>150.8852840987083</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.9934051322452</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>67.62176764444253</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>197.0498387099746</v>
       </c>
       <c r="V20" t="n">
-        <v>130.8252189404856</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>65.27666136637447</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>158.6706769332459</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984489</v>
+        <v>4.826544612644675</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>141.5965648667578</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>173.3086298268755</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>78.29200324836461</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>230.2634979541055</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5736554365939561</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>115.7535153335153</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G28" t="n">
-        <v>44.82579829756096</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.553858340638264</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>43.07152894337967</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883149</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>10.46499054460254</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.48345164522459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>411.5721485950816</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>136.8986664834659</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.30846669433845</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>52.26209087956677</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>178.9908326131589</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>48.91401559658143</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>57.68157701938528</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>138.0618384027766</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>20.48699093885593</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>243.9223155524612</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>26.94389492651033</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.48628953405799</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>339.5091118684753</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>11.00429467105819</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>89.06613335611763</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.2687303644548</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4418,43 +4418,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>548.0290291294086</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U3" t="n">
-        <v>548.0290291294086</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>548.0290291294086</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>548.0290291294086</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>548.0290291294086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>340.2687303644548</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
         <v>262.7299197543128</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.9060370580465</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>327.4530077769195</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
         <v>178.5185981156682</v>
@@ -4658,10 +4658,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X6" t="n">
-        <v>877.8816728430684</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y6" t="n">
-        <v>670.1213740781145</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E8" t="n">
         <v>262.7299197543128</v>
@@ -4795,7 +4795,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1104.626054809422</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="C11" t="n">
-        <v>1104.626054809422</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="D11" t="n">
-        <v>1104.626054809422</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="E11" t="n">
-        <v>1066.049756676706</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="F11" t="n">
-        <v>787.1037832399832</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G11" t="n">
-        <v>508.1578098032605</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H11" t="n">
         <v>229.2118363665377</v>
@@ -5053,10 +5053,10 @@
         <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>1011.830597149042</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>1011.830597149042</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="Y11" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>212.4252932779024</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>485.8202418432343</v>
+        <v>679.042797994484</v>
       </c>
       <c r="N12" t="n">
-        <v>759.2151904085662</v>
+        <v>679.042797994484</v>
       </c>
       <c r="O12" t="n">
-        <v>1025.71200399185</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P12" t="n">
         <v>1025.71200399185</v>
@@ -5153,19 +5153,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>1015.524794599613</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V12" t="n">
-        <v>780.3726863678703</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W12" t="n">
-        <v>780.3726863678703</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="X12" t="n">
-        <v>572.5211861623375</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="Y12" t="n">
-        <v>364.7608873973835</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>29.36865006843007</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>29.36865006843007</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
         <v>22.09252109618844</v>
@@ -5226,25 +5226,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1349.152202562835</v>
+        <v>1695.23639362001</v>
       </c>
       <c r="C14" t="n">
-        <v>1349.152202562835</v>
+        <v>1695.23639362001</v>
       </c>
       <c r="D14" t="n">
-        <v>1349.152202562835</v>
+        <v>1336.970695013259</v>
       </c>
       <c r="E14" t="n">
-        <v>963.3639499645906</v>
+        <v>951.182442415015</v>
       </c>
       <c r="F14" t="n">
-        <v>552.3780451749831</v>
+        <v>540.1965376254075</v>
       </c>
       <c r="G14" t="n">
-        <v>552.3780451749831</v>
+        <v>122.0213809261699</v>
       </c>
       <c r="H14" t="n">
-        <v>218.1571520484632</v>
+        <v>122.0213809261699</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827224</v>
+        <v>147.2929132168156</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977719</v>
+        <v>415.1943883367678</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480083</v>
+        <v>799.826485234194</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640747</v>
+        <v>1244.410349176442</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938975</v>
+        <v>1681.556047289582</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653887</v>
+        <v>2049.152696194592</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250555</v>
+        <v>2325.213548478438</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860973</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="R14" t="n">
-        <v>1813.956096613576</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.956096613576</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.956096613576</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.956096613576</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.956096613576</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="W14" t="n">
-        <v>1813.956096613576</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="X14" t="n">
-        <v>1735.752042626957</v>
+        <v>2081.836233684131</v>
       </c>
       <c r="Y14" t="n">
-        <v>1735.752042626957</v>
+        <v>2081.836233684131</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.3473053594665</v>
+        <v>816.2886862824824</v>
       </c>
       <c r="C15" t="n">
-        <v>814.8942760783395</v>
+        <v>641.8356570013555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.9598664170883</v>
+        <v>492.9012473401041</v>
       </c>
       <c r="E15" t="n">
-        <v>506.7224114116327</v>
+        <v>333.6637923346486</v>
       </c>
       <c r="F15" t="n">
-        <v>360.1878534385177</v>
+        <v>187.1292343615336</v>
       </c>
       <c r="G15" t="n">
-        <v>221.9106627267623</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="H15" t="n">
-        <v>112.9226833702866</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J15" t="n">
-        <v>79.50813891877812</v>
+        <v>113.8920892923634</v>
       </c>
       <c r="K15" t="n">
-        <v>79.50813891877812</v>
+        <v>351.24260989327</v>
       </c>
       <c r="L15" t="n">
-        <v>270.7074613114492</v>
+        <v>731.7940720015256</v>
       </c>
       <c r="M15" t="n">
-        <v>703.6961494946944</v>
+        <v>1227.858900469302</v>
       </c>
       <c r="N15" t="n">
-        <v>1163.851773243555</v>
+        <v>1752.760102247112</v>
       </c>
       <c r="O15" t="n">
-        <v>1518.38859202457</v>
+        <v>1982.295581432524</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577937003</v>
+        <v>2297.376506858683</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860973</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680906</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="S15" t="n">
-        <v>1674.085213826046</v>
+        <v>2317.016696384751</v>
       </c>
       <c r="T15" t="n">
-        <v>1473.727085388642</v>
+        <v>2117.682350832464</v>
       </c>
       <c r="U15" t="n">
-        <v>1451.436162293201</v>
+        <v>1889.505287232981</v>
       </c>
       <c r="V15" t="n">
-        <v>1451.436162293201</v>
+        <v>1654.353179001239</v>
       </c>
       <c r="W15" t="n">
-        <v>1197.198805564999</v>
+        <v>1400.115822273037</v>
       </c>
       <c r="X15" t="n">
-        <v>989.3473053594665</v>
+        <v>1192.264322067504</v>
       </c>
       <c r="Y15" t="n">
-        <v>989.3473053594665</v>
+        <v>984.5040233025504</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="C16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="D16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="E16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="F16" t="n">
-        <v>368.0336739170081</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="G16" t="n">
-        <v>198.7261280777931</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727434</v>
+        <v>94.6129539924502</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473019</v>
+        <v>208.37257122977</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519034</v>
+        <v>338.7052604257288</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922426</v>
+        <v>471.3735460023447</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856859</v>
+        <v>577.8978852021166</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041401</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041401</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041401</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041401</v>
+        <v>429.586584604747</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041401</v>
+        <v>429.586584604747</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041401</v>
+        <v>338.5232098758648</v>
       </c>
       <c r="V16" t="n">
-        <v>459.9924103041401</v>
+        <v>338.5232098758648</v>
       </c>
       <c r="W16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="X16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="Y16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890422</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>207.4089578252748</v>
+        <v>1565.89199372187</v>
       </c>
       <c r="C17" t="n">
-        <v>207.4089578252748</v>
+        <v>1565.89199372187</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4089578252748</v>
+        <v>1207.626295115119</v>
       </c>
       <c r="E17" t="n">
-        <v>207.4089578252748</v>
+        <v>1207.626295115119</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>796.6403903255116</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>378.465233626274</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>147.2929132168158</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>415.1943883367679</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>799.8264852341939</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1244.410349176441</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1681.556047289581</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2049.152696194592</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2325.213548478438</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2386.997176142744</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2206.003582293106</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2206.003582293106</v>
       </c>
       <c r="U17" t="n">
-        <v>2041.445430739973</v>
+        <v>2206.003582293106</v>
       </c>
       <c r="V17" t="n">
-        <v>1710.382543396402</v>
+        <v>1874.940694949535</v>
       </c>
       <c r="W17" t="n">
-        <v>1357.613888126288</v>
+        <v>1874.940694949535</v>
       </c>
       <c r="X17" t="n">
-        <v>984.1481298652084</v>
+        <v>1874.940694949535</v>
       </c>
       <c r="Y17" t="n">
-        <v>594.0087978893966</v>
+        <v>1565.89199372187</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>737.066229712467</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>562.61320043134</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>413.6787907700888</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>254.4413357646333</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>107.9067777915182</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>286.4565604398108</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>667.0080225480665</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1163.072851015843</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1687.974052793654</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2101.74042639577</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2416.821351821928</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2398.067650858418</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2237.794239814735</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2038.459894262448</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167582</v>
+        <v>1810.282830662966</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1575.130722431223</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1320.893365703022</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1113.041865497489</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>905.2815667325351</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>483.0889977815369</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>335.1759041991438</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2859567012335</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2859567012335</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2859567012335</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>94.61295399245022</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>208.37257122977</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>338.7052604257289</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>471.3735460023448</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>577.8978852021168</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>645.5271778068969</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>645.5271778068969</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="X19" t="n">
-        <v>625.3202087220412</v>
+        <v>493.1177999294138</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.5276295785111</v>
+        <v>493.1177999294138</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>534.603677789272</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="C20" t="n">
-        <v>534.603677789272</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="D20" t="n">
-        <v>534.603677789272</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="E20" t="n">
-        <v>534.603677789272</v>
+        <v>878.2671013277493</v>
       </c>
       <c r="F20" t="n">
-        <v>534.603677789272</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>147.2929132168156</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>415.1943883367678</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>799.8264852341941</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>1244.410349176442</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1681.556047289582</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2049.152696194592</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2325.213548478438</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2386.997176142744</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2206.003582293106</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2206.003582293106</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2006.963341171919</v>
       </c>
       <c r="V20" t="n">
-        <v>2037.577263360399</v>
+        <v>2006.963341171919</v>
       </c>
       <c r="W20" t="n">
-        <v>1684.808608090285</v>
+        <v>1654.194685901805</v>
       </c>
       <c r="X20" t="n">
-        <v>1311.342849829206</v>
+        <v>1654.194685901805</v>
       </c>
       <c r="Y20" t="n">
-        <v>921.2035178533938</v>
+        <v>1264.055353925994</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.7596187630173</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.3065894818903</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.3721798206391</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>506.1347248151836</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.6001668420686</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.5769723194392</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>113.8920892923634</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641987</v>
+        <v>351.24260989327</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>547.5631775848209</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1043.628006052598</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1568.529207830408</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>1982.295581432524</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2297.376506858683</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2455.301991945211</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2295.028580901529</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2290.153283312999</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.976219713516</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.824111481774</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.586754753572</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.735254548039</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.974955783085</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>667.7988452409105</v>
+        <v>502.5003446081515</v>
       </c>
       <c r="C22" t="n">
-        <v>498.8626623130036</v>
+        <v>502.5003446081515</v>
       </c>
       <c r="D22" t="n">
-        <v>348.7460229006679</v>
+        <v>502.5003446081515</v>
       </c>
       <c r="E22" t="n">
-        <v>200.8329293182748</v>
+        <v>354.5872510257584</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890422</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>94.6129539924502</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>208.37257122977</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>338.7052604257288</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>471.3735460023447</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>577.8978852021166</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068968</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064344</v>
+        <v>502.5003446081515</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1610.120910258947</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="C23" t="n">
-        <v>1241.158393318536</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2386.860082298881</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2386.860082298881</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V23" t="n">
-        <v>2386.860082298881</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2386.860082298881</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X23" t="n">
-        <v>2386.860082298881</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="Y23" t="n">
-        <v>1996.720750323069</v>
+        <v>1485.892406545184</v>
       </c>
     </row>
     <row r="24">
@@ -6050,43 +6050,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2323.683332757142</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.72081581673</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D26" t="n">
-        <v>1596.45511720998</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.666864611736</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F26" t="n">
-        <v>799.6809598221282</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>381.7171517203151</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>54.52243175631793</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757142</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.683332757142</v>
+        <v>1150.38930518072</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6423,13 +6423,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>934.637173372437</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C29" t="n">
-        <v>565.6746564320254</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="D29" t="n">
-        <v>207.4089578252748</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>887.4925516215208</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>476.5066468319132</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>58.54283873010007</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942546</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W29" t="n">
-        <v>1364.743608328861</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X29" t="n">
-        <v>1321.237013436559</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y29" t="n">
-        <v>1321.237013436559</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6560,7 +6560,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>323.2572191628418</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>323.2572191628418</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>68.57273095695493</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>68.57273095695493</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X31" t="n">
-        <v>68.57273095695493</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2092.422847177207</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C32" t="n">
-        <v>2092.422847177207</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.157148570457</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E32" t="n">
-        <v>1348.368895972212</v>
+        <v>796.8671448096966</v>
       </c>
       <c r="F32" t="n">
-        <v>937.3829911826049</v>
+        <v>796.8671448096966</v>
       </c>
       <c r="G32" t="n">
-        <v>519.4191830807918</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>192.2244631167946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V32" t="n">
-        <v>2092.422847177207</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W32" t="n">
-        <v>2092.422847177207</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X32" t="n">
-        <v>2092.422847177207</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y32" t="n">
-        <v>2092.422847177207</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036444</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>579.9823256406182</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V34" t="n">
-        <v>579.9823256406182</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W34" t="n">
-        <v>579.9823256406182</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X34" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1192.157102157134</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C35" t="n">
-        <v>823.1945852167225</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D35" t="n">
-        <v>464.928886609972</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6970,19 +6970,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>2644.359100230781</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>2644.359100230781</v>
       </c>
       <c r="X35" t="n">
-        <v>1759.555763042629</v>
+        <v>2270.893341969701</v>
       </c>
       <c r="Y35" t="n">
-        <v>1578.756942221256</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
         <v>713.8062203571349</v>
@@ -7034,31 +7034,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.9553738610022</v>
+        <v>678.7208876442307</v>
       </c>
       <c r="C37" t="n">
-        <v>438.9553738610022</v>
+        <v>678.7208876442307</v>
       </c>
       <c r="D37" t="n">
-        <v>438.9553738610022</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E37" t="n">
-        <v>438.9553738610022</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F37" t="n">
         <v>380.6911546495019</v>
@@ -7089,13 +7089,13 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.680947310029</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2381.515200905345</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2381.515200905345</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2381.515200905345</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.746545635231</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1655.280787374151</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1655.280787374151</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C40" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2718927217162</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2718927217162</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H40" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>707.4350539651656</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036444</v>
+        <v>711.3150639356904</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036444</v>
+        <v>300.3291591460829</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036444</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2669.933035536898</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2669.933035536898</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2669.933035536898</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2669.933035536898</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.164380266784</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>1873.842488573868</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1483.703156598056</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036444</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1610.120910258947</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C44" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117851</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
         <v>882.8926947117851</v>
@@ -7690,10 +7690,10 @@
         <v>2388.358616186807</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.892857925727</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.753525949915</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.05843098304948</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C46" t="n">
-        <v>65.05843098304948</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>513.8405610245969</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X46" t="n">
-        <v>285.8510101265796</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.05843098304948</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,7 +8066,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>169.2957226082605</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>275.9716853542989</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>65.32190271305268</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>234.1735424893812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>207.7705067346037</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>60.65058134701573</v>
       </c>
       <c r="K18" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>89.42592918711611</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>184.7485327613332</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>266.9721829858474</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>289.396393662649</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>60.13788883388727</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200386</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>26.24707489060569</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>120.4592573625853</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23105,13 +23105,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>88.80381631673187</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>343.7398349208728</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>49.15777860150361</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7261786344829</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>17.11499294205763</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
         <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>146.3479214995117</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
         <v>88.89425643449839</v>
@@ -23466,7 +23466,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206872</v>
       </c>
       <c r="T13" t="n">
         <v>227.6757534850358</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>87.81166520265033</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>67.62176764444253</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215387</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>292.3090872317159</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.27666136637447</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>56.66199767592529</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>21.7682343283897</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>203.8438222718452</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>54.3818989996706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270811</v>
+        <v>137.788117693706</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781607</v>
+        <v>51.83555490345142</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802084</v>
+        <v>36.98188228487145</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191053</v>
+        <v>150.8852840987083</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4550733994452</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>226.33686925111</v>
+        <v>225.4361251296813</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2984925031653</v>
+        <v>196.1342526604474</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>159.9978528790434</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U17" t="n">
-        <v>47.41997957426344</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>80.27972444066472</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>78.43023200431523</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.27666136637446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>138.6869588918142</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>51.83555490345141</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>36.98188228487144</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>159.9978528790434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>54.19106760723074</v>
       </c>
       <c r="V20" t="n">
-        <v>196.9270395296493</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.66199767592529</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>192.5144574841193</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>137.788117693706</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>51.83555490345142</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>36.98188228487145</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>150.8852840987083</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>225.4361251296813</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>76.98808848533696</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>233.567415914836</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>138.1563171092932</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24384,7 +24384,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>40.3263520086979</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24414,19 +24414,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>56.01837628787223</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.3576608082673</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>270.4844233225383</v>
       </c>
     </row>
     <row r="27">
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G28" t="n">
-        <v>122.4840039614899</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>319.3689144237189</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>326.6595717350893</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>135.9689721019666</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24897,16 +24897,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.1012017068702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.212021425713374</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>15.03264976139539</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>86.93835440428938</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>275.4901675905681</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>207.2471060428947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>130.9179645853559</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>87.73947100354596</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>78.38648195488116</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>204.5481145192283</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>169.8618544683337</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>27.5345076483014</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>171.4429748595358</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>368.2475521294226</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.22198880999372</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>137.6111783471542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>78.24366890293328</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,7 +26073,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513078</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>486317.16925174</v>
+        <v>486317.1692517402</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637240.4633007874</v>
+        <v>738768.8515969707</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123613</v>
+        <v>738768.8515969706</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783970.2356123613</v>
+        <v>738768.8515969707</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
   </sheetData>
@@ -26322,37 +26322,37 @@
         <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398033</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="F2" t="n">
-        <v>198862.5864584595</v>
+        <v>231326.4874512435</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>231326.4874512435</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>231326.4874512435</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.718513394</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133938</v>
@@ -26377,19 +26377,19 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689334</v>
+        <v>326513.6777659216</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328019</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>55256.55893426052</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138683</v>
+        <v>82704.25131371438</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112628</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>16991.84893966586</v>
       </c>
       <c r="F4" t="n">
-        <v>17618.81825911156</v>
+        <v>18040.97808399887</v>
       </c>
       <c r="G4" t="n">
-        <v>18228.92756966326</v>
+        <v>18040.97808399887</v>
       </c>
       <c r="H4" t="n">
-        <v>18228.92756966326</v>
+        <v>18040.97808399887</v>
       </c>
       <c r="I4" t="n">
         <v>18228.92756966326</v>
@@ -26481,13 +26481,13 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221583</v>
+        <v>44420.77245688337</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>44420.77245688337</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>44420.77245688337</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4728.818284657747</v>
+        <v>-16946.82890469816</v>
       </c>
       <c r="C6" t="n">
-        <v>76040.61324689002</v>
+        <v>63822.60262684956</v>
       </c>
       <c r="D6" t="n">
-        <v>76040.61324689002</v>
+        <v>63822.60262684958</v>
       </c>
       <c r="E6" t="n">
-        <v>77430.04855412166</v>
+        <v>65763.09596279699</v>
       </c>
       <c r="F6" t="n">
-        <v>-47566.40457180135</v>
+        <v>-164567.5446638589</v>
       </c>
       <c r="G6" t="n">
-        <v>-6832.776452480706</v>
+        <v>161946.1331020626</v>
       </c>
       <c r="H6" t="n">
-        <v>178319.3128803211</v>
+        <v>161946.1331020626</v>
       </c>
       <c r="I6" t="n">
-        <v>178319.3128803212</v>
+        <v>116994.3402002414</v>
       </c>
       <c r="J6" t="n">
-        <v>115259.3702812149</v>
+        <v>109190.9565353956</v>
       </c>
       <c r="K6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345021</v>
       </c>
       <c r="L6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="M6" t="n">
-        <v>169561.7298851074</v>
+        <v>163493.3161392883</v>
       </c>
       <c r="N6" t="n">
-        <v>128877.4410189343</v>
+        <v>89546.64782078753</v>
       </c>
       <c r="O6" t="n">
-        <v>131087.4502391948</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="P6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.8991345019</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435334</v>
+        <v>325.6964302438605</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>325.6964302438606</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>325.6964302438605</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26801,31 +26801,31 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652434</v>
+        <v>613.8254979863028</v>
       </c>
       <c r="G4" t="n">
+        <v>613.8254979863028</v>
+      </c>
+      <c r="H4" t="n">
+        <v>613.8254979863028</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545555</v>
@@ -26971,16 +26971,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244081</v>
+        <v>290.6751695247352</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735532</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52.04723397322613</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,19 +27023,19 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628879</v>
+        <v>337.6689842839474</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893122</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.46177476825267</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628879</v>
+        <v>337.6689842839474</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893122</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628879</v>
+        <v>337.6689842839474</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893122</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714904</v>
+        <v>1.30933238288989</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512404</v>
+        <v>13.40920026627109</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407466</v>
+        <v>50.47803669136255</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991847</v>
+        <v>111.1279493323009</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369467</v>
+        <v>166.55198910003</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369473</v>
+        <v>206.6224700128966</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961234</v>
+        <v>229.9073097771146</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885468</v>
+        <v>233.6274504100006</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164272</v>
+        <v>220.6077765276392</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107248</v>
+        <v>188.283633325045</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840198</v>
+        <v>141.3931673628008</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622606</v>
+        <v>82.24735029670715</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470661</v>
+        <v>29.83641167510341</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636451</v>
+        <v>5.731602506100499</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771922</v>
+        <v>0.1047465906311912</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728832</v>
+        <v>0.700554585807549</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585478</v>
+        <v>6.76588244714133</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647865</v>
+        <v>24.11997148504062</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692315</v>
+        <v>66.18704531965095</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130631</v>
+        <v>113.1242025687567</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995869</v>
+        <v>152.1094507473804</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682257</v>
+        <v>177.504554482904</v>
       </c>
       <c r="N15" t="n">
-        <v>116.802998092164</v>
+        <v>182.2025718587801</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364175</v>
+        <v>166.6797570890444</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099205</v>
+        <v>133.775199810917</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589997</v>
+        <v>89.42517835676715</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437604</v>
+        <v>43.49583647671784</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037527013</v>
+        <v>13.01249417059197</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791577</v>
+        <v>2.82372659805762</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295285</v>
+        <v>0.04608911748733877</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358799</v>
+        <v>0.5873214315872893</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071734</v>
+        <v>5.221821455385177</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017719</v>
+        <v>17.66235723355231</v>
       </c>
       <c r="J16" t="n">
-        <v>26.6191847188567</v>
+        <v>41.52362521322136</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351403</v>
+        <v>68.2360717789596</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779255</v>
+        <v>87.31867901980483</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886796</v>
+        <v>92.06530404417845</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495246</v>
+        <v>89.87619689008045</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438784</v>
+        <v>83.01521471199253</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061585</v>
+        <v>71.03385750761177</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367354</v>
+        <v>49.18016096682293</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806419</v>
+        <v>26.40810727846121</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527104</v>
+        <v>10.23541076684394</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171486</v>
+        <v>2.509464298600236</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559347</v>
+        <v>0.03203571445021582</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.309332382889891</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>13.4092002662711</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>50.47803669136256</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>111.127949332301</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>166.5519891000301</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>206.6224700128966</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>229.9073097771147</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>233.6274504100006</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>220.6077765276393</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>188.283633325045</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>141.3931673628008</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>82.24735029670717</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>29.83641167510341</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>5.7316025061005</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1047465906311912</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.7005545858075491</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>6.765882447141331</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>24.11997148504062</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>66.18704531965096</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>113.1242025687567</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>152.1094507473804</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>177.504554482904</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>182.2025718587801</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>166.6797570890444</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>133.775199810917</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>89.42517835676716</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>43.49583647671785</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>13.01249417059197</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>2.82372659805762</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.04608911748733878</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.5873214315872894</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>5.221821455385178</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>17.66235723355231</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>41.52362521322137</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>68.23607177895961</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>87.31867901980485</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>92.06530404417846</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>89.87619689008046</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>83.01521471199254</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>71.03385750761178</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>49.18016096682295</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>26.40810727846121</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>10.23541076684394</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.509464298600236</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03203571445021583</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.30933238288989</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>13.40920026627109</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>50.47803669136255</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>111.1279493323009</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>166.55198910003</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>206.6224700128966</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>229.9073097771146</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>233.6274504100006</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>220.6077765276392</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>188.283633325045</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>141.3931673628008</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>82.24735029670715</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>29.83641167510341</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>5.731602506100499</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1047465906311912</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.700554585807549</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>6.76588244714133</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>24.11997148504062</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>66.18704531965095</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>113.1242025687567</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>152.1094507473804</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>177.504554482904</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>182.2025718587801</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>166.6797570890444</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>133.775199810917</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>89.42517835676715</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>43.49583647671784</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>13.01249417059197</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>2.82372659805762</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.04608911748733877</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.5873214315872893</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>5.221821455385177</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>17.66235723355231</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>41.52362521322136</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>68.2360717789596</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246924</v>
+        <v>87.31867901980483</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>92.06530404417845</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>89.87619689008045</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>83.01521471199253</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>71.03385750761177</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>49.18016096682293</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>26.40810727846121</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>10.23541076684394</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.509464298600236</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03203571445021582</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>47.09726275197407</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>151.298066666745</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
         <v>79.71116244199196</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530596</v>
+        <v>99.17865997768843</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631309</v>
+        <v>270.6075506262142</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174105</v>
+        <v>388.5172695933597</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616832</v>
+        <v>449.0746100426744</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039401</v>
+        <v>441.5613112253938</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574858</v>
+        <v>371.3097463686978</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269379</v>
+        <v>278.8493457412581</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385717</v>
+        <v>131.402468148256</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066529</v>
+        <v>65.44045399339309</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>239.7480006069763</v>
       </c>
       <c r="L15" t="n">
-        <v>193.1306286794658</v>
+        <v>384.3954162709654</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962073</v>
+        <v>501.0755843108856</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523843</v>
+        <v>530.2032341190003</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687026</v>
+        <v>231.8540193792036</v>
       </c>
       <c r="P15" t="n">
-        <v>270.246450416599</v>
+        <v>318.2635610365239</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757275</v>
+        <v>159.5206920065947</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763118</v>
+        <v>45.96657995307675</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810868</v>
+        <v>114.908704280121</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070854</v>
+        <v>131.649181006019</v>
       </c>
       <c r="N16" t="n">
-        <v>101.748314384181</v>
+        <v>134.008369269309</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842751</v>
+        <v>107.6003426260322</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550934</v>
+        <v>68.31241677250526</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>99.17865997768844</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>270.6075506262142</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>388.5172695933598</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>449.0746100426744</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>441.5613112253939</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>371.3097463686979</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>278.8493457412582</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>131.402468148256</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>239.7480006069763</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>384.3954162709654</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>501.0755843108856</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>530.2032341190003</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>417.9458319213295</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>318.2635610365239</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>38.86933345786176</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>45.96657995307676</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>114.908704280121</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>131.649181006019</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>107.6003426260322</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>68.31241677250527</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>99.17865997768843</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>270.6075506262142</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>388.5172695933597</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>449.0746100426744</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>441.5613112253938</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>371.3097463686978</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>278.8493457412581</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>131.402468148256</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>65.44045399339309</v>
       </c>
       <c r="K21" t="n">
-        <v>138.389756104752</v>
+        <v>239.7480006069763</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>198.3036037288393</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>501.0755843108856</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>530.2032341190003</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>417.9458319213294</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>318.2635610365239</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>159.5206920065947</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>45.96657995307675</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850085</v>
+        <v>114.908704280121</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>131.649181006019</v>
       </c>
       <c r="N22" t="n">
-        <v>148.370846145888</v>
+        <v>134.008369269309</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>107.6003426260322</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>68.31241677250526</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,13 +36846,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37162,7 +37162,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>702528.8266698977</v>
+        <v>768801.3288934309</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404724.2260944798</v>
+        <v>406463.2981009822</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11762410.58428957</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7745526.650623183</v>
+        <v>7731615.311954871</v>
       </c>
     </row>
     <row r="11">
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140.2861087592617</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>54.82907102477793</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="9">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>276.1565137023555</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>91.8675030837757</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>28.31188152033573</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>234.579990218862</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.7129594148219</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9934051322452</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>72.18618767639303</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6429625774031</v>
+        <v>32.30018441572875</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>136.9024426048562</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
-        <v>197.341002096764</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952929634875</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7811872701283</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>131.0102864828588</v>
       </c>
       <c r="U16" t="n">
-        <v>90.15274098159331</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9934051322452</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>326.065601849496</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.62176764444251</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1836579111419</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>305.9582142153889</v>
+        <v>130.6070467442755</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>58.21273057308787</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.66199767592529</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6706769332459</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>197.341002096764</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952929634875</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.928514126398118</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.788117693706</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8852840987083</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9934051322452</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.62176764444253</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1836579111419</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>197.0498387099746</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>316.6354691465249</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6429625774031</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4695617893551</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>65.27666136637447</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6706769332459</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>4.826544612644675</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952929634875</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0053510520544</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.5965648667578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>173.3086298268755</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>67.64048538945411</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I25" t="n">
-        <v>94.63926978364033</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.178315471687517</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.7535153335153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>94.63926978364032</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>144.9817345489347</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>4.553858340638264</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.17737911999798</v>
       </c>
       <c r="E31" t="n">
-        <v>10.46499054460254</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.5721485950816</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>172.0605432780338</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>156.1271626621471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>52.26209087956677</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>45.24972634440809</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.91401559658143</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>115.4685441446654</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>58.49852621786729</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>92.00803688215797</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>113.7145621736547</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>243.9223155524612</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>82.53358783001366</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.389005322401447</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>102.5756487563989</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>339.5091118684753</v>
+        <v>241.4923106593519</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>89.06613335611763</v>
+        <v>83.82953530753669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4351,25 +4351,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3248651012614</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3248651012614</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W2" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
         <v>19.28114311021272</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
         <v>234.810827406191</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="4">
@@ -4518,10 +4518,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4603,16 +4603,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>908.674255485608</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>908.674255485608</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V6" t="n">
-        <v>735.8335372470253</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W6" t="n">
-        <v>735.8335372470253</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>527.9820370414925</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>320.2217382765386</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
         <v>262.7299197543128</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,19 +4913,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>706.487660844374</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>471.3355526126313</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
         <v>20.03527576299844</v>
@@ -4992,7 +4992,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C11" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D11" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E11" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F11" t="n">
-        <v>508.1578098032605</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618844</v>
@@ -5050,10 +5050,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
         <v>989.7620250901066</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1011.830597149042</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>1011.830597149042</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>787.1037832399832</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>196.5455503773155</v>
+        <v>199.624790878991</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618844</v>
+        <v>199.624790878991</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>50.69038121773968</v>
       </c>
       <c r="E12" t="n">
         <v>22.09252109618844</v>
@@ -5120,22 +5120,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>679.042797994484</v>
+        <v>685.3494183114809</v>
       </c>
       <c r="N12" t="n">
-        <v>679.042797994484</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945615</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P12" t="n">
         <v>1025.71200399185</v>
@@ -5153,19 +5153,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435696</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118269</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W12" t="n">
-        <v>404.3058491422694</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X12" t="n">
-        <v>404.3058491422694</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="Y12" t="n">
-        <v>196.5455503773155</v>
+        <v>199.624790878991</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G13" t="n">
         <v>22.09252109618844</v>
@@ -5226,25 +5226,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.23639362001</v>
+        <v>1112.031900882671</v>
       </c>
       <c r="C14" t="n">
-        <v>1695.23639362001</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="D14" t="n">
-        <v>1336.970695013259</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="E14" t="n">
-        <v>951.182442415015</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="F14" t="n">
-        <v>540.1965376254075</v>
+        <v>456.8914916336472</v>
       </c>
       <c r="G14" t="n">
-        <v>122.0213809261699</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H14" t="n">
-        <v>122.0213809261699</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I14" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J14" t="n">
-        <v>147.2929132168156</v>
+        <v>96.93923871827189</v>
       </c>
       <c r="K14" t="n">
-        <v>415.1943883367678</v>
+        <v>305.6565612977709</v>
       </c>
       <c r="L14" t="n">
-        <v>799.826485234194</v>
+        <v>616.8654835480065</v>
       </c>
       <c r="M14" t="n">
-        <v>1244.410349176442</v>
+        <v>979.7519185640722</v>
       </c>
       <c r="N14" t="n">
-        <v>1681.556047289582</v>
+        <v>1333.878237938972</v>
       </c>
       <c r="O14" t="n">
-        <v>2049.152696194592</v>
+        <v>1623.082041653882</v>
       </c>
       <c r="P14" t="n">
-        <v>2325.213548478438</v>
+        <v>1832.23641425055</v>
       </c>
       <c r="Q14" t="n">
-        <v>2455.301991945211</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R14" t="n">
-        <v>2455.301991945211</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S14" t="n">
-        <v>2455.301991945211</v>
+        <v>1720.269661778606</v>
       </c>
       <c r="T14" t="n">
-        <v>2455.301991945211</v>
+        <v>1498.631740946793</v>
       </c>
       <c r="U14" t="n">
-        <v>2455.301991945211</v>
+        <v>1498.631740946793</v>
       </c>
       <c r="V14" t="n">
-        <v>2455.301991945211</v>
+        <v>1498.631740946793</v>
       </c>
       <c r="W14" t="n">
-        <v>2455.301991945211</v>
+        <v>1498.631740946793</v>
       </c>
       <c r="X14" t="n">
-        <v>2081.836233684131</v>
+        <v>1498.631740946793</v>
       </c>
       <c r="Y14" t="n">
-        <v>2081.836233684131</v>
+        <v>1498.631740946793</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>816.2886862824824</v>
+        <v>245.3210957431229</v>
       </c>
       <c r="C15" t="n">
-        <v>641.8356570013555</v>
+        <v>70.86806646199588</v>
       </c>
       <c r="D15" t="n">
-        <v>492.9012473401041</v>
+        <v>70.86806646199588</v>
       </c>
       <c r="E15" t="n">
-        <v>333.6637923346486</v>
+        <v>70.86806646199588</v>
       </c>
       <c r="F15" t="n">
-        <v>187.1292343615336</v>
+        <v>70.86806646199588</v>
       </c>
       <c r="G15" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H15" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I15" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J15" t="n">
-        <v>113.8920892923634</v>
+        <v>79.50813891877777</v>
       </c>
       <c r="K15" t="n">
-        <v>351.24260989327</v>
+        <v>276.660039875308</v>
       </c>
       <c r="L15" t="n">
-        <v>731.7940720015256</v>
+        <v>603.1594970539157</v>
       </c>
       <c r="M15" t="n">
-        <v>1227.858900469302</v>
+        <v>1036.14818523716</v>
       </c>
       <c r="N15" t="n">
-        <v>1752.760102247112</v>
+        <v>1496.30380898602</v>
       </c>
       <c r="O15" t="n">
-        <v>1982.295581432524</v>
+        <v>1785.932577936998</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.376506858683</v>
+        <v>1785.932577936998</v>
       </c>
       <c r="Q15" t="n">
-        <v>2455.301991945211</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R15" t="n">
-        <v>2455.301991945211</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S15" t="n">
-        <v>2317.016696384751</v>
+        <v>1747.089599006109</v>
       </c>
       <c r="T15" t="n">
-        <v>2117.682350832464</v>
+        <v>1546.731470568705</v>
       </c>
       <c r="U15" t="n">
-        <v>1889.505287232981</v>
+        <v>1318.537696693622</v>
       </c>
       <c r="V15" t="n">
-        <v>1654.353179001239</v>
+        <v>1083.385588461879</v>
       </c>
       <c r="W15" t="n">
-        <v>1400.115822273037</v>
+        <v>829.1482317336777</v>
       </c>
       <c r="X15" t="n">
-        <v>1192.264322067504</v>
+        <v>621.2967315281448</v>
       </c>
       <c r="Y15" t="n">
-        <v>984.5040233025504</v>
+        <v>413.5364327631909</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="C16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="D16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="E16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="F16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="G16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="K16" t="n">
-        <v>94.6129539924502</v>
+        <v>59.500883257274</v>
       </c>
       <c r="L16" t="n">
-        <v>208.37257122977</v>
+        <v>142.2318586473013</v>
       </c>
       <c r="M16" t="n">
-        <v>338.7052604257288</v>
+        <v>239.8491955519024</v>
       </c>
       <c r="N16" t="n">
-        <v>471.3735460023447</v>
+        <v>340.5800267922414</v>
       </c>
       <c r="O16" t="n">
-        <v>577.8978852021166</v>
+        <v>417.6049576856843</v>
       </c>
       <c r="P16" t="n">
-        <v>645.5271778068968</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="Q16" t="n">
-        <v>645.5271778068968</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="R16" t="n">
-        <v>645.5271778068968</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="S16" t="n">
-        <v>429.586584604747</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="T16" t="n">
-        <v>429.586584604747</v>
+        <v>327.65878759418</v>
       </c>
       <c r="U16" t="n">
-        <v>338.5232098758648</v>
+        <v>327.65878759418</v>
       </c>
       <c r="V16" t="n">
-        <v>338.5232098758648</v>
+        <v>327.65878759418</v>
       </c>
       <c r="W16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="X16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.10603983890422</v>
+        <v>38.24161755721936</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1565.89199372187</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C17" t="n">
-        <v>1565.89199372187</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D17" t="n">
-        <v>1207.626295115119</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E17" t="n">
-        <v>1207.626295115119</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>796.6403903255116</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>378.465233626274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>147.2929132168158</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1943883367679</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>799.8264852341939</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
-        <v>1244.410349176441</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1681.556047289581</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2049.152696194592</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2325.213548478438</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2455.301991945211</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2386.997176142744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2206.003582293106</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2206.003582293106</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2206.003582293106</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>1874.940694949535</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W17" t="n">
-        <v>1874.940694949535</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X17" t="n">
-        <v>1874.940694949535</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y17" t="n">
-        <v>1565.89199372187</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>737.066229712467</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>562.61320043134</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>413.6787907700888</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>254.4413357646333</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>107.9067777915182</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>49.10603983890422</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>49.10603983890422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>286.4565604398108</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>667.0080225480665</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1163.072851015843</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1687.974052793654</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2101.74042639577</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2416.821351821928</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2455.301991945211</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2398.067650858418</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2237.794239814735</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2038.459894262448</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
-        <v>1810.282830662966</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1575.130722431223</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1320.893365703022</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1113.041865497489</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>905.2815667325351</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.1177999294138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>493.1177999294138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>483.0889977815369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>335.1759041991438</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>188.2859567012335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>188.2859567012335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>188.2859567012335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>94.61295399245022</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>208.37257122977</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>338.7052604257289</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>471.3735460023448</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>577.8978852021168</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>645.5271778068969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>645.5271778068969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>493.1177999294138</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>493.1177999294138</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>493.1177999294138</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>493.1177999294138</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>493.1177999294138</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>493.1177999294138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>493.1177999294138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>493.1177999294138</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1264.055353925994</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C20" t="n">
-        <v>1264.055353925994</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>1264.055353925994</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>878.2671013277493</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>467.2811965381418</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>147.2929132168156</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1943883367678</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>799.8264852341941</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
-        <v>1244.410349176442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1681.556047289582</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
-        <v>2049.152696194592</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2325.213548478438</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2455.301991945211</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2386.997176142744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2206.003582293106</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2206.003582293106</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2006.963341171919</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2006.963341171919</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W20" t="n">
-        <v>1654.194685901805</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X20" t="n">
-        <v>1654.194685901805</v>
+        <v>1638.455051716319</v>
       </c>
       <c r="Y20" t="n">
-        <v>1264.055353925994</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7596187630173</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3065894818903</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3721798206391</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>506.1347248151836</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6001668420686</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5769723194392</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.0420614211007</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>113.8920892923634</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>351.24260989327</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>547.5631775848209</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.628006052598</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1568.529207830408</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>1982.295581432524</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.376506858683</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2455.301991945211</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2455.301991945211</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2295.028580901529</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2290.153283312999</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.976219713516</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.824111481774</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.586754753572</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.735254548039</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.974955783085</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>502.5003446081515</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C22" t="n">
-        <v>502.5003446081515</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D22" t="n">
-        <v>502.5003446081515</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E22" t="n">
-        <v>354.5872510257584</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F22" t="n">
-        <v>207.6973035278481</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G22" t="n">
-        <v>207.6973035278481</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H22" t="n">
-        <v>49.10603983890422</v>
+        <v>125.4609311463251</v>
       </c>
       <c r="I22" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>49.10603983890422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>94.6129539924502</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>208.37257122977</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>338.7052604257288</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>471.3735460023447</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>577.8978852021166</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>645.5271778068968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>502.5003446081515</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1485.892406545184</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C23" t="n">
-        <v>1485.892406545184</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D23" t="n">
-        <v>1127.626707938434</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>1127.626707938434</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
         <v>207.4089578252748</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.723949158869</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545184</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="X23" t="n">
-        <v>1485.892406545184</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y23" t="n">
-        <v>1485.892406545184</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6092,25 +6092,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5382038240415</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5382038240415</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F25" t="n">
-        <v>149.5382038240415</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G25" t="n">
-        <v>149.5382038240415</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H25" t="n">
-        <v>149.5382038240415</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036444</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1150.38930518072</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.38930518072</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D26" t="n">
-        <v>792.1236065739693</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739693</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>1640.777806202926</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X26" t="n">
-        <v>1267.312047941846</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y26" t="n">
-        <v>1150.38930518072</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424003</v>
@@ -6308,22 +6308,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240415</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240415</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240415</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1273.280804219765</v>
+        <v>1130.084661047914</v>
       </c>
       <c r="C29" t="n">
-        <v>1273.280804219765</v>
+        <v>1130.084661047914</v>
       </c>
       <c r="D29" t="n">
-        <v>1273.280804219765</v>
+        <v>771.8189624411634</v>
       </c>
       <c r="E29" t="n">
-        <v>887.4925516215208</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>476.5066468319132</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>58.54283873010007</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V29" t="n">
-        <v>2423.485734520778</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W29" t="n">
-        <v>2423.485734520778</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X29" t="n">
-        <v>2050.019976259699</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y29" t="n">
-        <v>1659.880644283887</v>
+        <v>1130.084661047914</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6560,7 +6560,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211.4036268380754</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C31" t="n">
-        <v>211.4036268380754</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D31" t="n">
-        <v>211.4036268380754</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>211.4036268380754</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>211.4036268380754</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y31" t="n">
-        <v>211.4036268380754</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1540.921096014691</v>
+        <v>1373.145632153538</v>
       </c>
       <c r="C32" t="n">
-        <v>1540.921096014691</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D32" t="n">
-        <v>1182.655397407941</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E32" t="n">
-        <v>796.8671448096966</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F32" t="n">
-        <v>796.8671448096966</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628376</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284805</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014691</v>
+        <v>2523.350562454551</v>
       </c>
       <c r="X32" t="n">
-        <v>1540.921096014691</v>
+        <v>2149.884804193472</v>
       </c>
       <c r="Y32" t="n">
-        <v>1540.921096014691</v>
+        <v>1759.74547221766</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6888,16 +6888,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>211.6471865296039</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V34" t="n">
-        <v>211.6471865296039</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W34" t="n">
-        <v>211.6471865296039</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
         <v>53.94298182036444</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1494.154169929768</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>1125.191652989356</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>766.9259543826058</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.359100230781</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W35" t="n">
-        <v>2644.359100230781</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X35" t="n">
-        <v>2270.893341969701</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y35" t="n">
-        <v>1880.75400999389</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7034,25 +7034,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>678.7208876442307</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C37" t="n">
-        <v>678.7208876442307</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D37" t="n">
-        <v>528.604248231895</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E37" t="n">
-        <v>380.6911546495019</v>
+        <v>170.577874895784</v>
       </c>
       <c r="F37" t="n">
-        <v>380.6911546495019</v>
+        <v>170.577874895784</v>
       </c>
       <c r="G37" t="n">
-        <v>211.6913543878343</v>
+        <v>170.577874895784</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7137,10 +7137,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>798.4928208132003</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>113.0324022424526</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7204,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="39">
@@ -7265,13 +7265,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064342</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D40" t="n">
-        <v>578.0123447940985</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E40" t="n">
-        <v>430.0992512117053</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F40" t="n">
-        <v>283.209303713795</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G40" t="n">
-        <v>283.209303713795</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7368,16 +7368,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1097.103316533935</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="C41" t="n">
-        <v>1097.103316533935</v>
+        <v>906.5618456510797</v>
       </c>
       <c r="D41" t="n">
-        <v>1097.103316533935</v>
+        <v>548.2961470443292</v>
       </c>
       <c r="E41" t="n">
-        <v>711.3150639356904</v>
+        <v>548.2961470443292</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3291591460829</v>
+        <v>137.3102422547217</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>137.3102422547217</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>137.3102422547217</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W41" t="n">
-        <v>2247.308246834948</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X41" t="n">
-        <v>1873.842488573868</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y41" t="n">
-        <v>1483.703156598056</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.8626623130036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C43" t="n">
-        <v>498.8626623130036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7605,16 +7605,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629041</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,22 +7672,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.358616186807</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X44" t="n">
         <v>2045.420119349963</v>
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.7118141694736</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C46" t="n">
-        <v>438.7118141694736</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D46" t="n">
-        <v>438.7118141694736</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E46" t="n">
-        <v>290.7987205870805</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="F46" t="n">
-        <v>143.9087730891701</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694736</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X46" t="n">
-        <v>438.7118141694736</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.7118141694736</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,13 +8780,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>186.3618508321561</v>
       </c>
       <c r="O12" t="n">
-        <v>275.9716853542989</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9020,10 +9020,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>207.7705067346037</v>
+        <v>328.2986325797226</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>48.21631822333865</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>60.65058134701573</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.42592918711611</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>184.7485327613332</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>289.396393662649</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>118.3023584998409</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22758,13 +22758,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.3082731757329</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>287.2759793369997</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.24707489060569</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>45.3287631278652</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="9">
@@ -23153,10 +23153,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23232,10 +23232,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5773279611251</v>
+        <v>139.4951843944459</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
         <v>139.005434824964</v>
@@ -23278,7 +23278,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>49.15777860150361</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>129.3331989350652</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23393,16 +23393,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>17.11499294205763</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>161.6656840978772</v>
@@ -23466,7 +23466,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>47.78481791206872</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
         <v>227.6757534850358</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3812856695756</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>123.5599323561856</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.065601849496</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>87.81166520265033</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.62176764444253</v>
+        <v>97.14353343492391</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1836579111419</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3642470580309</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2409063172053</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.594234388909</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4695617893551</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>65.27666136637447</v>
+        <v>73.93425515493651</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.66199767592529</v>
+        <v>72.27434132826724</v>
       </c>
       <c r="S15" t="n">
-        <v>21.7682343283897</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4036579268715</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0053510520544</v>
+        <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
-        <v>137.788117693706</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>51.83555490345142</v>
+        <v>66.73999539781622</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.98188228487145</v>
+        <v>54.63455058802101</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8852840987083</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4361251296813</v>
+        <v>95.32658276825123</v>
       </c>
       <c r="U16" t="n">
-        <v>196.1342526604474</v>
+        <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9978528790434</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3642470580309</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2409063172053</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>80.27972444066472</v>
+        <v>255.6308919117781</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>78.43023200431523</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4695617893551</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.27666136637446</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>138.6869588918142</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4036579268715</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0053510520544</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>51.83555490345141</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.98188228487144</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7811872701283</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4361251296812</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2869936420407</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.065601849496</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9978528790434</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3642470580309</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>54.19106760723074</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>53.09563153194409</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.66199767592529</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>192.5144574841193</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4036579268715</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>137.788117693706</v>
+        <v>64.16285195963719</v>
       </c>
       <c r="J22" t="n">
-        <v>51.83555490345142</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.98188228487145</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8852840987083</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7811872701283</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4361251296813</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2869936420407</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>76.98808848533696</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>233.567415914836</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>260.1117730806808</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I25" t="n">
-        <v>40.3263520086979</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>380.7520546005742</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>270.4844233225383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>50.78177823929093</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>236.9486355233271</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>319.3689144237189</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>81.43809389821438</v>
       </c>
       <c r="E31" t="n">
-        <v>135.9689721019666</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.212021425713374</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>177.1804254393792</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25128,19 +25128,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>69.58249272689005</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,16 +25210,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>275.4901675905681</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>324.4813743340609</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9179645853559</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.70234469712977</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>93.43279002699396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>64.16285195963718</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25608,10 +25608,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>172.8084361629363</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>169.8618544683337</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>69.39772841484759</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.4429748595358</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>43.85831389017027</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25845,7 +25845,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25921,16 +25921,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>30.22198880999372</v>
+        <v>128.2387900191172</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,19 +26034,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>78.24366890293328</v>
+        <v>83.48026695151422</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.939351308</v>
+        <v>457060.9393513079</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738768.8515969707</v>
+        <v>637240.4633007864</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738768.8515969706</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738768.8515969707</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398032</v>
+        <v>150604.5581398033</v>
       </c>
       <c r="F2" t="n">
-        <v>231326.4874512435</v>
+        <v>198862.5864584592</v>
       </c>
       <c r="G2" t="n">
-        <v>231326.4874512435</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>231326.4874512435</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26340,10 +26340,10 @@
         <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26352,10 +26352,10 @@
         <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133941</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>326513.6777659216</v>
+        <v>195194.8921689322</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>185152.0893328031</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55256.55893426052</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910626</v>
@@ -26401,10 +26401,10 @@
         <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>82704.25131371438</v>
+        <v>49441.8718613865</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47231.86264112659</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>16991.84893966586</v>
       </c>
       <c r="F4" t="n">
-        <v>18040.97808399887</v>
+        <v>17618.81825911155</v>
       </c>
       <c r="G4" t="n">
-        <v>18040.97808399887</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>18040.97808399887</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
         <v>18228.92756966326</v>
@@ -26481,13 +26481,13 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>44420.77245688337</v>
+        <v>33615.28060221572</v>
       </c>
       <c r="G5" t="n">
-        <v>44420.77245688337</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>44420.77245688337</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16946.82890469816</v>
+        <v>-5950.619346661735</v>
       </c>
       <c r="C6" t="n">
-        <v>63822.60262684956</v>
+        <v>74818.812184886</v>
       </c>
       <c r="D6" t="n">
-        <v>63822.60262684958</v>
+        <v>74818.81218488597</v>
       </c>
       <c r="E6" t="n">
-        <v>65763.09596279699</v>
+        <v>76263.35329498918</v>
       </c>
       <c r="F6" t="n">
-        <v>-164567.5446638589</v>
+        <v>-48449.22907611708</v>
       </c>
       <c r="G6" t="n">
-        <v>161946.1331020626</v>
+        <v>-7439.617827063878</v>
       </c>
       <c r="H6" t="n">
-        <v>161946.1331020626</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="I6" t="n">
-        <v>116994.3402002414</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="J6" t="n">
-        <v>109190.9565353956</v>
+        <v>114652.5289066329</v>
       </c>
       <c r="K6" t="n">
-        <v>172250.8991345021</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="L6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057393</v>
       </c>
       <c r="M6" t="n">
-        <v>163493.3161392883</v>
+        <v>168954.8885105256</v>
       </c>
       <c r="N6" t="n">
-        <v>89546.64782078753</v>
+        <v>128270.5996443527</v>
       </c>
       <c r="O6" t="n">
-        <v>172250.8991345019</v>
+        <v>130480.6088646128</v>
       </c>
       <c r="P6" t="n">
-        <v>172250.8991345019</v>
+        <v>177712.4715057392</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>325.6964302438605</v>
+        <v>208.7913421435323</v>
       </c>
       <c r="G3" t="n">
-        <v>325.6964302438606</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>325.6964302438605</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26801,13 +26801,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>613.8254979863028</v>
+        <v>478.0202194652421</v>
       </c>
       <c r="G4" t="n">
-        <v>613.8254979863028</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>613.8254979863028</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545555</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26971,16 +26971,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>290.6751695247352</v>
+        <v>173.770081424407</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>168.9523220735544</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>52.04723397322613</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>337.6689842839474</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.46177476825267</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776592</v>
@@ -27047,10 +27047,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839474</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839474</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.30933238288989</v>
+        <v>0.8393621794714859</v>
       </c>
       <c r="H14" t="n">
-        <v>13.40920026627109</v>
+        <v>8.596117920512357</v>
       </c>
       <c r="I14" t="n">
-        <v>50.47803669136255</v>
+        <v>32.35951042407449</v>
       </c>
       <c r="J14" t="n">
-        <v>111.1279493323009</v>
+        <v>71.23981577991809</v>
       </c>
       <c r="K14" t="n">
-        <v>166.55198910003</v>
+        <v>106.7700168369461</v>
       </c>
       <c r="L14" t="n">
-        <v>206.6224700128966</v>
+        <v>132.4576471369466</v>
       </c>
       <c r="M14" t="n">
-        <v>229.9073097771146</v>
+        <v>147.3846542961227</v>
       </c>
       <c r="N14" t="n">
-        <v>233.6274504100006</v>
+        <v>149.769492088546</v>
       </c>
       <c r="O14" t="n">
-        <v>220.6077765276392</v>
+        <v>141.4230844164264</v>
       </c>
       <c r="P14" t="n">
-        <v>188.283633325045</v>
+        <v>120.7013306107241</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.3931673628008</v>
+        <v>90.6416725584015</v>
       </c>
       <c r="R14" t="n">
-        <v>82.24735029670715</v>
+        <v>52.72558450622578</v>
       </c>
       <c r="S14" t="n">
-        <v>29.83641167510341</v>
+        <v>19.12696566470651</v>
       </c>
       <c r="T14" t="n">
-        <v>5.731602506100499</v>
+        <v>3.674307940636432</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1047465906311912</v>
+        <v>0.06714897435771887</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.700554585807549</v>
+        <v>0.4490983585728808</v>
       </c>
       <c r="H15" t="n">
-        <v>6.76588244714133</v>
+        <v>4.337344673585455</v>
       </c>
       <c r="I15" t="n">
-        <v>24.11997148504062</v>
+        <v>15.46237769647857</v>
       </c>
       <c r="J15" t="n">
-        <v>66.18704531965095</v>
+        <v>42.42994623692292</v>
       </c>
       <c r="K15" t="n">
-        <v>113.1242025687567</v>
+        <v>72.51953626130593</v>
       </c>
       <c r="L15" t="n">
-        <v>152.1094507473804</v>
+        <v>97.51146596995818</v>
       </c>
       <c r="M15" t="n">
-        <v>177.504554482904</v>
+        <v>113.7912814682251</v>
       </c>
       <c r="N15" t="n">
-        <v>182.2025718587801</v>
+        <v>116.8029980921634</v>
       </c>
       <c r="O15" t="n">
-        <v>166.6797570890444</v>
+        <v>106.8519239364169</v>
       </c>
       <c r="P15" t="n">
-        <v>133.775199810917</v>
+        <v>85.7580891909916</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.42517835676715</v>
+        <v>57.32701152589966</v>
       </c>
       <c r="R15" t="n">
-        <v>43.49583647671784</v>
+        <v>27.88349282437589</v>
       </c>
       <c r="S15" t="n">
-        <v>13.01249417059197</v>
+        <v>8.341805037526969</v>
       </c>
       <c r="T15" t="n">
-        <v>2.82372659805762</v>
+        <v>1.810181541791567</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04608911748733877</v>
+        <v>0.0295459446429527</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5873214315872893</v>
+        <v>0.3765089776358779</v>
       </c>
       <c r="H16" t="n">
-        <v>5.221821455385177</v>
+        <v>3.347507092071717</v>
       </c>
       <c r="I16" t="n">
-        <v>17.66235723355231</v>
+        <v>11.32265180017713</v>
       </c>
       <c r="J16" t="n">
-        <v>41.52362521322136</v>
+        <v>26.61918471885656</v>
       </c>
       <c r="K16" t="n">
-        <v>68.2360717789596</v>
+        <v>43.7434975835138</v>
       </c>
       <c r="L16" t="n">
-        <v>87.31867901980483</v>
+        <v>55.97661654779225</v>
       </c>
       <c r="M16" t="n">
-        <v>92.06530404417845</v>
+        <v>59.01949364886764</v>
       </c>
       <c r="N16" t="n">
-        <v>89.87619689008045</v>
+        <v>57.61614200495215</v>
       </c>
       <c r="O16" t="n">
-        <v>83.01521471199253</v>
+        <v>53.21783258438756</v>
       </c>
       <c r="P16" t="n">
-        <v>71.03385750761177</v>
+        <v>45.53704944061561</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.18016096682293</v>
+        <v>31.52749266367337</v>
       </c>
       <c r="R16" t="n">
-        <v>26.40810727846121</v>
+        <v>16.9292127580641</v>
       </c>
       <c r="S16" t="n">
-        <v>10.23541076684394</v>
+        <v>6.561524637527069</v>
       </c>
       <c r="T16" t="n">
-        <v>2.509464298600236</v>
+        <v>1.608720177171478</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03203571445021582</v>
+        <v>0.02053685332559336</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.309332382889891</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>13.4092002662711</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>50.47803669136256</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
-        <v>111.127949332301</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>166.5519891000301</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>206.6224700128966</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>229.9073097771147</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>233.6274504100006</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>220.6077765276393</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>188.283633325045</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.3931673628008</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>82.24735029670717</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>29.83641167510341</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>5.7316025061005</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1047465906311912</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7005545858075491</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>6.765882447141331</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>24.11997148504062</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>66.18704531965096</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>113.1242025687567</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>152.1094507473804</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>177.504554482904</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2025718587801</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>166.6797570890444</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>133.775199810917</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.42517835676716</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>43.49583647671785</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>13.01249417059197</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>2.82372659805762</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04608911748733878</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5873214315872894</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>5.221821455385178</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>17.66235723355231</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>41.52362521322137</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>68.23607177895961</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>87.31867901980485</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>92.06530404417846</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>89.87619689008046</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>83.01521471199254</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>71.03385750761178</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.18016096682295</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>26.40810727846121</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
-        <v>10.23541076684394</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.509464298600236</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03203571445021583</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.30933238288989</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>13.40920026627109</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>50.47803669136255</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>111.1279493323009</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>166.55198910003</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>206.6224700128966</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9073097771146</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>233.6274504100006</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>220.6077765276392</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>188.283633325045</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.3931673628008</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>82.24735029670715</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>29.83641167510341</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>5.731602506100499</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1047465906311912</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.700554585807549</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>6.76588244714133</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>24.11997148504062</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>66.18704531965095</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>113.1242025687567</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>152.1094507473804</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>177.504554482904</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>182.2025718587801</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>166.6797570890444</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>133.775199810917</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.42517835676715</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>43.49583647671784</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>13.01249417059197</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>2.82372659805762</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04608911748733877</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5873214315872893</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>5.221821455385177</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>17.66235723355231</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>41.52362521322136</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>68.2360717789596</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
-        <v>87.31867901980483</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>92.06530404417845</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>89.87619689008045</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>83.01521471199253</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>71.03385750761177</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.18016096682293</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>26.40810727846121</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>10.23541076684394</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.509464298600236</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03203571445021582</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
@@ -35500,13 +35500,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>74.61189100715683</v>
       </c>
       <c r="O12" t="n">
-        <v>151.298066666745</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>79.71116244199196</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>99.17865997768843</v>
+        <v>59.29052642530557</v>
       </c>
       <c r="K14" t="n">
-        <v>270.6075506262142</v>
+        <v>210.8255783631303</v>
       </c>
       <c r="L14" t="n">
-        <v>388.5172695933597</v>
+        <v>314.3524467174099</v>
       </c>
       <c r="M14" t="n">
-        <v>449.0746100426744</v>
+        <v>366.5519545616825</v>
       </c>
       <c r="N14" t="n">
-        <v>441.5613112253938</v>
+        <v>357.7033529039393</v>
       </c>
       <c r="O14" t="n">
-        <v>371.3097463686978</v>
+        <v>292.1250542574851</v>
       </c>
       <c r="P14" t="n">
-        <v>278.8493457412581</v>
+        <v>211.2670430269372</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.402468148256</v>
+        <v>80.65097334385669</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.44045399339309</v>
+        <v>41.68335491066507</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7480006069763</v>
+        <v>199.1433342995255</v>
       </c>
       <c r="L15" t="n">
-        <v>384.3954162709654</v>
+        <v>329.7974314935432</v>
       </c>
       <c r="M15" t="n">
-        <v>501.0755843108856</v>
+        <v>437.3623112962067</v>
       </c>
       <c r="N15" t="n">
-        <v>530.2032341190003</v>
+        <v>464.8036603523836</v>
       </c>
       <c r="O15" t="n">
-        <v>231.8540193792036</v>
+        <v>292.5543120716951</v>
       </c>
       <c r="P15" t="n">
-        <v>318.2635610365239</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.5206920065947</v>
+        <v>127.4225251757272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.96657995307675</v>
+        <v>21.47400575763095</v>
       </c>
       <c r="L16" t="n">
-        <v>114.908704280121</v>
+        <v>83.56664180810839</v>
       </c>
       <c r="M16" t="n">
-        <v>131.649181006019</v>
+        <v>98.60337061070823</v>
       </c>
       <c r="N16" t="n">
-        <v>134.008369269309</v>
+        <v>101.7483143841807</v>
       </c>
       <c r="O16" t="n">
-        <v>107.6003426260322</v>
+        <v>77.80296049842724</v>
       </c>
       <c r="P16" t="n">
-        <v>68.31241677250526</v>
+        <v>42.8156087055091</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>99.17865997768844</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>270.6075506262142</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>388.5172695933598</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>449.0746100426744</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>441.5613112253939</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>371.3097463686979</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8493457412582</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.402468148256</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>239.7480006069763</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>384.3954162709654</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>501.0755843108856</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>530.2032341190003</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>417.9458319213295</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>318.2635610365239</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.86933345786176</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.96657995307676</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>114.908704280121</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>131.649181006019</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>134.0083692693091</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>107.6003426260322</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>68.31241677250527</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>99.17865997768843</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>270.6075506262142</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>388.5172695933597</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>449.0746100426744</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>441.5613112253938</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>371.3097463686978</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>278.8493457412581</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.402468148256</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>65.44045399339309</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7480006069763</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>198.3036037288393</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>501.0755843108856</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>530.2032341190003</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>417.9458319213294</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>318.2635610365239</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.5206920065947</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.96657995307675</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
-        <v>114.908704280121</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>131.649181006019</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>134.008369269309</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>107.6003426260322</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>68.31241677250526</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
